--- a/ShopifyBackupWeb/obj/Debug/netcoreapp2.2/PubTmp/Out/wwwroot/Data_Init/Out/ExportOut.xlsx
+++ b/ShopifyBackupWeb/obj/Debug/netcoreapp2.2/PubTmp/Out/wwwroot/Data_Init/Out/ExportOut.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Image</t>
   </si>
@@ -101,307 +101,322 @@
     <t>Carrer</t>
   </si>
   <si>
+    <t>District Unisex Shirt / Black / 2XL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>#LWF1196</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>#1015</t>
-  </si>
-  <si>
-    <t>Dwight@gmail.com</t>
-  </si>
-  <si>
-    <t>New Zealand Warriors Luggage Covers Unique K4 - Medium</t>
+    <t>admin@jhsams.com.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 2XL</t>
   </si>
   <si>
     <t>ShopifyBackupWeb.Models.ShippingAddress</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>73130</t>
-  </si>
-  <si>
-    <t>2005 Dorchester Rd</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>#1014</t>
-  </si>
-  <si>
-    <t>IRISH UNBREAKABLE QUILT - King</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>P0X 1M0</t>
-  </si>
-  <si>
-    <t>410 N 4yh St</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Mononoke Mask Studio Ghibli Cross Shoulder - M</t>
-  </si>
-  <si>
-    <t>Sweatshirt / M</t>
-  </si>
-  <si>
-    <t>#1013</t>
-  </si>
-  <si>
-    <t>FULL 3D POOH RAINBOW FLAG - Sweatshirt / M</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>98642</t>
-  </si>
-  <si>
-    <t>904 North 7th Circle</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Hoodie / S</t>
-  </si>
-  <si>
-    <t>#1012</t>
-  </si>
-  <si>
-    <t>FULL 3D JACK RAINBOW FLAG - Hoodie / S</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>#1011</t>
-  </si>
-  <si>
-    <t>paul@gmail.com</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - L</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>01801</t>
-  </si>
-  <si>
-    <t>7 Floyd st</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - M</t>
-  </si>
-  <si>
-    <t>Twin</t>
-  </si>
-  <si>
-    <t>#1010</t>
-  </si>
-  <si>
-    <t>Jayden@gmail.com</t>
-  </si>
-  <si>
-    <t>SCOTLAND QUILT 0703 - Twin</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>PO box 90</t>
-  </si>
-  <si>
-    <t>Jayden Smith</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>UNCLE � THE MYTH � DOCKING STATION</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>#1009</t>
-  </si>
-  <si>
-    <t>uyennguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>Australia Flag Kangaroo Women�s Leggings A5 - XS</t>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>15 Palmcrest Road</t>
+  </si>
+  <si>
+    <t>GailRasmussen</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / S</t>
+  </si>
+  <si>
+    <t>#LWF1195</t>
+  </si>
+  <si>
+    <t>hoangmachuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / S</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thap</t>
+  </si>
+  <si>
+    <t>NguoiViet</t>
+  </si>
+  <si>
+    <t>#LWF1194</t>
+  </si>
+  <si>
+    <t>Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>Aotearoa Rugby Fern Hoodie Black White - T - Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>#LWF1193</t>
+  </si>
+  <si>
+    <t>TDF0G17091117000</t>
+  </si>
+  <si>
+    <t>quocquoc42@gmail.com</t>
+  </si>
+  <si>
+    <t>2222 - First</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>nghiemnghiem</t>
+  </si>
+  <si>
+    <t>Bình DươngHoa Sen</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / L</t>
+  </si>
+  <si>
+    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / L</t>
+  </si>
+  <si>
+    <t>#LWF1192</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
+    <t>#LWF1189</t>
+  </si>
+  <si>
+    <t>daonguyenkhanh2502@gmail.com</t>
+  </si>
+  <si>
+    <t>It's Where My Story Begins Tshirt - District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
+    <t>Cafe Trung Nguyen</t>
+  </si>
+  <si>
+    <t>KhanhDao</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Royal Blue / L</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>#LWF1188</t>
+  </si>
+  <si>
+    <t>gdonehue@xtra.co.nz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Royal Blue / L</t>
+  </si>
+  <si>
+    <t>could i have one black and one royal blue please</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>7910</t>
+  </si>
+  <si>
+    <t>15 Cook Street</t>
+  </si>
+  <si>
+    <t>GarthDonehue</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>15 Cook StreetOceanview</t>
+  </si>
+  <si>
+    <t>#LWF1187</t>
+  </si>
+  <si>
+    <t>nhnvu511994@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>123 Nguyen Trai</t>
-  </si>
-  <si>
-    <t>UyenNguyen</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>New Zealand Warriors Luggage Covers Unique K4 - Large</t>
-  </si>
-  <si>
-    <t>#1008</t>
-  </si>
-  <si>
-    <t>alan@gmail.com</t>
-  </si>
-  <si>
-    <t>I JUST NEED TO GO TO SCOTLAND - Large</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Southyorkshire</t>
-  </si>
-  <si>
-    <t>S73 8TT</t>
-  </si>
-  <si>
-    <t>1 Copeland road wombwell</t>
-  </si>
-  <si>
-    <t>I JUST NEED TO GO TO SCOTLAND - Medium</t>
-  </si>
-  <si>
-    <t>T-shirt / M</t>
-  </si>
-  <si>
-    <t>#1007</t>
-  </si>
-  <si>
-    <t>Raymond@gmail.com</t>
-  </si>
-  <si>
-    <t>FULL 3D JACK RAINBOW FLAG - T-shirt / M</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>80219</t>
-  </si>
-  <si>
-    <t>1680 south Dale court</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>#1006</t>
-  </si>
-  <si>
-    <t>Daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>Deer Blanket - King</t>
-  </si>
-  <si>
-    <t>123 Fifth Ave</t>
-  </si>
-  <si>
-    <t>FULL 3D HIPPIE RAINBOW FLAG - Hoodie / S</t>
-  </si>
-  <si>
-    <t>#1005</t>
-  </si>
-  <si>
-    <t>tuym@gmail.com</t>
-  </si>
-  <si>
-    <t>Australia Flag Kangaroo Women�s Leggings A5 - M</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thap</t>
-  </si>
-  <si>
-    <t>NguoiViet</t>
-  </si>
-  <si>
-    <t>#1004</t>
-  </si>
-  <si>
-    <t>Toy@gmail.com</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>76177</t>
-  </si>
-  <si>
-    <t>15836 Coyote Hill Dr.</t>
-  </si>
-  <si>
-    <t>NguoiMy</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>#1003</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - S</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>#1001</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - XL</t>
-  </si>
-  <si>
-    <t>Buy cute no face</t>
+    <t>188 đường 14 phuớc bình quận 9</t>
+  </si>
+  <si>
+    <t>NguyenDao Khanh</t>
+  </si>
+  <si>
+    <t>#LWF1186</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>#LWF1185</t>
+  </si>
+  <si>
+    <t>P211</t>
+  </si>
+  <si>
+    <t>murrayhansford@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>Lest we Forget Black Mug – ANZAC Day in New Zealand - Black</t>
+  </si>
+  <si>
+    <t>PL15 8DY</t>
+  </si>
+  <si>
+    <t>Flat 2 Duchy House 12/14 Dutson Road</t>
+  </si>
+  <si>
+    <t>MurrayHansford</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / 2XL</t>
+  </si>
+  <si>
+    <t>#LWF1183</t>
+  </si>
+  <si>
+    <t>3DTSN001ZHS5</t>
+  </si>
+  <si>
+    <t>whearv@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Silver Fern All Over Zip Hoodie - Zip-Up Hoodie / 2XL</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>6112</t>
+  </si>
+  <si>
+    <t>5 Blythe Place</t>
+  </si>
+  <si>
+    <t>DavidWhear</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Unisex Hoodie / Black / 2XL</t>
+  </si>
+  <si>
+    <t>#LWF1182</t>
+  </si>
+  <si>
+    <t>kiwicampnut@gmail.com</t>
+  </si>
+  <si>
+    <t>Lest we Forget Hoodie – ANZAC Day in New Zealand - Unisex Hoodie / Black / 2XL</t>
+  </si>
+  <si>
+    <t>8062</t>
+  </si>
+  <si>
+    <t>12 Fitzpatricks Lane</t>
+  </si>
+  <si>
+    <t>LindaRimmer</t>
+  </si>
+  <si>
+    <t>12 Fitzpatricks LaneLinwood</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Black / 4XL</t>
+  </si>
+  <si>
+    <t>#LWF1174</t>
+  </si>
+  <si>
+    <t>m4moses@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 4XL</t>
+  </si>
+  <si>
+    <t>6710</t>
+  </si>
+  <si>
+    <t>Second Ave</t>
+  </si>
+  <si>
+    <t>VickiTybura</t>
+  </si>
+  <si>
+    <t>Second Ave82 Ocean View Caravan Park</t>
+  </si>
+  <si>
+    <t>#LWF1133</t>
+  </si>
+  <si>
+    <t>peterbright8@bigpond.com</t>
+  </si>
+  <si>
+    <t>Manual Item Order</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>30 Bernard Drive</t>
+  </si>
+  <si>
+    <t>PeterBright</t>
+  </si>
+  <si>
+    <t>#LWF1034</t>
+  </si>
+  <si>
+    <t>United Kingdom (Great Britain)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +424,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +441,13 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -472,7 +494,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,6 +823,9 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="19" width="21.28515625" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" s="4" customFormat="1">
@@ -874,24 +899,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="120.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -900,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -918,13 +941,13 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>30</v>
@@ -933,686 +956,620 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="R11" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="M14" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>29</v>
@@ -1621,110 +1578,104 @@
         <v>30</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>29</v>
@@ -1733,303 +1684,124 @@
         <v>30</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="R17" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>